--- a/Human_anno/humananno_res/lsy_color.xlsx
+++ b/Human_anno/humananno_res/lsy_color.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G379"/>
+  <dimension ref="A1:G757"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,7 +437,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="19" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
@@ -9609,6 +9609,9132 @@
         <v>4</v>
       </c>
     </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>A red bird</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>0</v>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>4</v>
+      </c>
+      <c r="F380" t="n">
+        <v>5</v>
+      </c>
+      <c r="G380" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>A red bird</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>0</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>5</v>
+      </c>
+      <c r="F381" t="n">
+        <v>5</v>
+      </c>
+      <c r="G381" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>A red bird</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>0</v>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>5</v>
+      </c>
+      <c r="F382" t="n">
+        <v>5</v>
+      </c>
+      <c r="G382" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>A red bird</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>0</v>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>5</v>
+      </c>
+      <c r="F383" t="n">
+        <v>5</v>
+      </c>
+      <c r="G383" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>A red bird</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>0</v>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D384" t="n">
+        <v>4</v>
+      </c>
+      <c r="F384" t="n">
+        <v>4</v>
+      </c>
+      <c r="G384" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>A red bird</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>0</v>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>5</v>
+      </c>
+      <c r="F385" t="n">
+        <v>5</v>
+      </c>
+      <c r="G385" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="2" t="inlineStr">
+        <is>
+          <t>A red bird</t>
+        </is>
+      </c>
+      <c r="B386" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C386" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D386" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E386" s="2" t="inlineStr"/>
+      <c r="F386" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G386" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>A red bird</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>1</v>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D387" t="n">
+        <v>3</v>
+      </c>
+      <c r="F387" t="n">
+        <v>5</v>
+      </c>
+      <c r="G387" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>A red bird</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>1</v>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>5</v>
+      </c>
+      <c r="F388" t="n">
+        <v>4</v>
+      </c>
+      <c r="G388" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>A red bird</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>1</v>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>4</v>
+      </c>
+      <c r="F389" t="n">
+        <v>5</v>
+      </c>
+      <c r="G389" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>A red bird</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>1</v>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D390" t="n">
+        <v>5</v>
+      </c>
+      <c r="F390" t="n">
+        <v>5</v>
+      </c>
+      <c r="G390" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>A red bird</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>1</v>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D391" t="n">
+        <v>4</v>
+      </c>
+      <c r="F391" t="n">
+        <v>4</v>
+      </c>
+      <c r="G391" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>A red bird</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>1</v>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D392" t="n">
+        <v>5</v>
+      </c>
+      <c r="F392" t="n">
+        <v>4</v>
+      </c>
+      <c r="G392" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="inlineStr">
+        <is>
+          <t>A red bird</t>
+        </is>
+      </c>
+      <c r="B393" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C393" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D393" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E393" s="2" t="inlineStr"/>
+      <c r="F393" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G393" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>A red bird</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>2</v>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>5</v>
+      </c>
+      <c r="F394" t="n">
+        <v>5</v>
+      </c>
+      <c r="G394" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>A red bird</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>2</v>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>5</v>
+      </c>
+      <c r="F395" t="n">
+        <v>5</v>
+      </c>
+      <c r="G395" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>A red bird</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>2</v>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>4</v>
+      </c>
+      <c r="F396" t="n">
+        <v>5</v>
+      </c>
+      <c r="G396" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>A red bird</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>2</v>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D397" t="n">
+        <v>5</v>
+      </c>
+      <c r="F397" t="n">
+        <v>5</v>
+      </c>
+      <c r="G397" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>A red bird</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>2</v>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D398" t="n">
+        <v>4</v>
+      </c>
+      <c r="F398" t="n">
+        <v>3</v>
+      </c>
+      <c r="G398" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>A red bird</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>2</v>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D399" t="n">
+        <v>5</v>
+      </c>
+      <c r="F399" t="n">
+        <v>5</v>
+      </c>
+      <c r="G399" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="inlineStr">
+        <is>
+          <t>A red bird</t>
+        </is>
+      </c>
+      <c r="B400" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C400" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D400" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E400" s="2" t="inlineStr"/>
+      <c r="F400" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G400" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>A green bird</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>0</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D401" t="n">
+        <v>3</v>
+      </c>
+      <c r="F401" t="n">
+        <v>5</v>
+      </c>
+      <c r="G401" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>A green bird</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>0</v>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D402" t="n">
+        <v>5</v>
+      </c>
+      <c r="F402" t="n">
+        <v>5</v>
+      </c>
+      <c r="G402" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>A green bird</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>0</v>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D403" t="n">
+        <v>5</v>
+      </c>
+      <c r="F403" t="n">
+        <v>4</v>
+      </c>
+      <c r="G403" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>A green bird</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>0</v>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D404" t="n">
+        <v>5</v>
+      </c>
+      <c r="F404" t="n">
+        <v>5</v>
+      </c>
+      <c r="G404" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>A green bird</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>0</v>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D405" t="n">
+        <v>4</v>
+      </c>
+      <c r="F405" t="n">
+        <v>5</v>
+      </c>
+      <c r="G405" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>A green bird</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>0</v>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D406" t="n">
+        <v>3</v>
+      </c>
+      <c r="F406" t="n">
+        <v>4</v>
+      </c>
+      <c r="G406" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="2" t="inlineStr">
+        <is>
+          <t>A green bird</t>
+        </is>
+      </c>
+      <c r="B407" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C407" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D407" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E407" s="2" t="inlineStr"/>
+      <c r="F407" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G407" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>A green bird</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>1</v>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D408" t="n">
+        <v>4</v>
+      </c>
+      <c r="F408" t="n">
+        <v>5</v>
+      </c>
+      <c r="G408" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>A green bird</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>1</v>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D409" t="n">
+        <v>5</v>
+      </c>
+      <c r="F409" t="n">
+        <v>5</v>
+      </c>
+      <c r="G409" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>A green bird</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>1</v>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D410" t="n">
+        <v>5</v>
+      </c>
+      <c r="F410" t="n">
+        <v>5</v>
+      </c>
+      <c r="G410" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>A green bird</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>1</v>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D411" t="n">
+        <v>5</v>
+      </c>
+      <c r="F411" t="n">
+        <v>5</v>
+      </c>
+      <c r="G411" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>A green bird</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>1</v>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D412" t="n">
+        <v>4</v>
+      </c>
+      <c r="F412" t="n">
+        <v>3</v>
+      </c>
+      <c r="G412" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>A green bird</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>1</v>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D413" t="n">
+        <v>3</v>
+      </c>
+      <c r="F413" t="n">
+        <v>4</v>
+      </c>
+      <c r="G413" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="2" t="inlineStr">
+        <is>
+          <t>A green bird</t>
+        </is>
+      </c>
+      <c r="B414" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C414" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D414" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E414" s="2" t="inlineStr"/>
+      <c r="F414" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G414" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>A green bird</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>2</v>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D415" t="n">
+        <v>4</v>
+      </c>
+      <c r="F415" t="n">
+        <v>5</v>
+      </c>
+      <c r="G415" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>A green bird</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>2</v>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D416" t="n">
+        <v>5</v>
+      </c>
+      <c r="F416" t="n">
+        <v>4</v>
+      </c>
+      <c r="G416" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>A green bird</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>2</v>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D417" t="n">
+        <v>5</v>
+      </c>
+      <c r="F417" t="n">
+        <v>5</v>
+      </c>
+      <c r="G417" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>A green bird</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>2</v>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D418" t="n">
+        <v>4</v>
+      </c>
+      <c r="F418" t="n">
+        <v>5</v>
+      </c>
+      <c r="G418" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>A green bird</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>2</v>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D419" t="n">
+        <v>3</v>
+      </c>
+      <c r="F419" t="n">
+        <v>4</v>
+      </c>
+      <c r="G419" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>A green bird</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>2</v>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D420" t="n">
+        <v>2</v>
+      </c>
+      <c r="F420" t="n">
+        <v>4</v>
+      </c>
+      <c r="G420" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="2" t="inlineStr">
+        <is>
+          <t>A green bird</t>
+        </is>
+      </c>
+      <c r="B421" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C421" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D421" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E421" s="2" t="inlineStr"/>
+      <c r="F421" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G421" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>A blue bird</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>0</v>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D422" t="n">
+        <v>3</v>
+      </c>
+      <c r="F422" t="n">
+        <v>5</v>
+      </c>
+      <c r="G422" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>A blue bird</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>0</v>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D423" t="n">
+        <v>4</v>
+      </c>
+      <c r="F423" t="n">
+        <v>5</v>
+      </c>
+      <c r="G423" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>A blue bird</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>0</v>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D424" t="n">
+        <v>5</v>
+      </c>
+      <c r="F424" t="n">
+        <v>5</v>
+      </c>
+      <c r="G424" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>A blue bird</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>0</v>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D425" t="n">
+        <v>5</v>
+      </c>
+      <c r="F425" t="n">
+        <v>5</v>
+      </c>
+      <c r="G425" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>A blue bird</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>0</v>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D426" t="n">
+        <v>2</v>
+      </c>
+      <c r="F426" t="n">
+        <v>2</v>
+      </c>
+      <c r="G426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>A blue bird</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>0</v>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D427" t="n">
+        <v>5</v>
+      </c>
+      <c r="F427" t="n">
+        <v>5</v>
+      </c>
+      <c r="G427" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="2" t="inlineStr">
+        <is>
+          <t>A blue bird</t>
+        </is>
+      </c>
+      <c r="B428" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C428" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D428" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E428" s="2" t="inlineStr"/>
+      <c r="F428" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G428" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>A blue bird</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>1</v>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D429" t="n">
+        <v>4</v>
+      </c>
+      <c r="F429" t="n">
+        <v>5</v>
+      </c>
+      <c r="G429" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>A blue bird</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>1</v>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D430" t="n">
+        <v>5</v>
+      </c>
+      <c r="F430" t="n">
+        <v>4</v>
+      </c>
+      <c r="G430" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>A blue bird</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>1</v>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D431" t="n">
+        <v>5</v>
+      </c>
+      <c r="F431" t="n">
+        <v>5</v>
+      </c>
+      <c r="G431" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>A blue bird</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>1</v>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D432" t="n">
+        <v>5</v>
+      </c>
+      <c r="F432" t="n">
+        <v>5</v>
+      </c>
+      <c r="G432" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>A blue bird</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>1</v>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D433" t="n">
+        <v>4</v>
+      </c>
+      <c r="F433" t="n">
+        <v>5</v>
+      </c>
+      <c r="G433" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>A blue bird</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>1</v>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D434" t="n">
+        <v>4</v>
+      </c>
+      <c r="F434" t="n">
+        <v>4</v>
+      </c>
+      <c r="G434" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="2" t="inlineStr">
+        <is>
+          <t>A blue bird</t>
+        </is>
+      </c>
+      <c r="B435" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C435" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D435" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E435" s="2" t="inlineStr"/>
+      <c r="F435" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G435" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>A blue bird</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>2</v>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D436" t="n">
+        <v>4</v>
+      </c>
+      <c r="F436" t="n">
+        <v>5</v>
+      </c>
+      <c r="G436" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>A blue bird</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>2</v>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D437" t="n">
+        <v>5</v>
+      </c>
+      <c r="F437" t="n">
+        <v>5</v>
+      </c>
+      <c r="G437" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>A blue bird</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>2</v>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D438" t="n">
+        <v>5</v>
+      </c>
+      <c r="F438" t="n">
+        <v>4</v>
+      </c>
+      <c r="G438" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>A blue bird</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>2</v>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D439" t="n">
+        <v>5</v>
+      </c>
+      <c r="F439" t="n">
+        <v>5</v>
+      </c>
+      <c r="G439" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>A blue bird</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>2</v>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D440" t="n">
+        <v>4</v>
+      </c>
+      <c r="F440" t="n">
+        <v>4</v>
+      </c>
+      <c r="G440" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>A blue bird</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>2</v>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D441" t="n">
+        <v>4</v>
+      </c>
+      <c r="F441" t="n">
+        <v>5</v>
+      </c>
+      <c r="G441" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="2" t="inlineStr">
+        <is>
+          <t>A blue bird</t>
+        </is>
+      </c>
+      <c r="B442" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C442" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D442" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E442" s="2" t="inlineStr"/>
+      <c r="F442" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G442" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>A yellow bird</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>0</v>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D443" t="n">
+        <v>5</v>
+      </c>
+      <c r="F443" t="n">
+        <v>5</v>
+      </c>
+      <c r="G443" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>A yellow bird</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>0</v>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D444" t="n">
+        <v>4</v>
+      </c>
+      <c r="F444" t="n">
+        <v>3</v>
+      </c>
+      <c r="G444" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>A yellow bird</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>0</v>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D445" t="n">
+        <v>3</v>
+      </c>
+      <c r="F445" t="n">
+        <v>5</v>
+      </c>
+      <c r="G445" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>A yellow bird</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>0</v>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D446" t="n">
+        <v>5</v>
+      </c>
+      <c r="F446" t="n">
+        <v>5</v>
+      </c>
+      <c r="G446" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>A yellow bird</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>0</v>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D447" t="n">
+        <v>4</v>
+      </c>
+      <c r="F447" t="n">
+        <v>5</v>
+      </c>
+      <c r="G447" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>A yellow bird</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>0</v>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D448" t="n">
+        <v>5</v>
+      </c>
+      <c r="F448" t="n">
+        <v>5</v>
+      </c>
+      <c r="G448" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="2" t="inlineStr">
+        <is>
+          <t>A yellow bird</t>
+        </is>
+      </c>
+      <c r="B449" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C449" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D449" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E449" s="2" t="inlineStr"/>
+      <c r="F449" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G449" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>A yellow bird</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>1</v>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D450" t="n">
+        <v>5</v>
+      </c>
+      <c r="F450" t="n">
+        <v>5</v>
+      </c>
+      <c r="G450" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>A yellow bird</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>1</v>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D451" t="n">
+        <v>5</v>
+      </c>
+      <c r="F451" t="n">
+        <v>4</v>
+      </c>
+      <c r="G451" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>A yellow bird</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>1</v>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D452" t="n">
+        <v>4</v>
+      </c>
+      <c r="F452" t="n">
+        <v>5</v>
+      </c>
+      <c r="G452" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>A yellow bird</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>1</v>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D453" t="n">
+        <v>5</v>
+      </c>
+      <c r="F453" t="n">
+        <v>5</v>
+      </c>
+      <c r="G453" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>A yellow bird</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>1</v>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D454" t="n">
+        <v>5</v>
+      </c>
+      <c r="F454" t="n">
+        <v>4</v>
+      </c>
+      <c r="G454" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>A yellow bird</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>1</v>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D455" t="n">
+        <v>5</v>
+      </c>
+      <c r="F455" t="n">
+        <v>5</v>
+      </c>
+      <c r="G455" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="2" t="inlineStr">
+        <is>
+          <t>A yellow bird</t>
+        </is>
+      </c>
+      <c r="B456" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C456" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D456" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E456" s="2" t="inlineStr"/>
+      <c r="F456" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G456" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>A yellow bird</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>2</v>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D457" t="n">
+        <v>5</v>
+      </c>
+      <c r="F457" t="n">
+        <v>5</v>
+      </c>
+      <c r="G457" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>A yellow bird</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>2</v>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D458" t="n">
+        <v>2</v>
+      </c>
+      <c r="F458" t="n">
+        <v>3</v>
+      </c>
+      <c r="G458" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>A yellow bird</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>2</v>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D459" t="n">
+        <v>3</v>
+      </c>
+      <c r="F459" t="n">
+        <v>5</v>
+      </c>
+      <c r="G459" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>A yellow bird</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>2</v>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D460" t="n">
+        <v>5</v>
+      </c>
+      <c r="F460" t="n">
+        <v>5</v>
+      </c>
+      <c r="G460" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>A yellow bird</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>2</v>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D461" t="n">
+        <v>5</v>
+      </c>
+      <c r="F461" t="n">
+        <v>5</v>
+      </c>
+      <c r="G461" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>A yellow bird</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>2</v>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D462" t="n">
+        <v>5</v>
+      </c>
+      <c r="F462" t="n">
+        <v>5</v>
+      </c>
+      <c r="G462" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="2" t="inlineStr">
+        <is>
+          <t>A yellow bird</t>
+        </is>
+      </c>
+      <c r="B463" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C463" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D463" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E463" s="2" t="inlineStr"/>
+      <c r="F463" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G463" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>An orange bird</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>0</v>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D464" t="n">
+        <v>4</v>
+      </c>
+      <c r="F464" t="n">
+        <v>5</v>
+      </c>
+      <c r="G464" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>An orange bird</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>0</v>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D465" t="n">
+        <v>5</v>
+      </c>
+      <c r="F465" t="n">
+        <v>4</v>
+      </c>
+      <c r="G465" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>An orange bird</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>0</v>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D466" t="n">
+        <v>5</v>
+      </c>
+      <c r="F466" t="n">
+        <v>5</v>
+      </c>
+      <c r="G466" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>An orange bird</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>0</v>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D467" t="n">
+        <v>5</v>
+      </c>
+      <c r="F467" t="n">
+        <v>4</v>
+      </c>
+      <c r="G467" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>An orange bird</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>0</v>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D468" t="n">
+        <v>4</v>
+      </c>
+      <c r="F468" t="n">
+        <v>5</v>
+      </c>
+      <c r="G468" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>An orange bird</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>0</v>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D469" t="n">
+        <v>3</v>
+      </c>
+      <c r="F469" t="n">
+        <v>4</v>
+      </c>
+      <c r="G469" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="2" t="inlineStr">
+        <is>
+          <t>An orange bird</t>
+        </is>
+      </c>
+      <c r="B470" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C470" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D470" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E470" s="2" t="inlineStr"/>
+      <c r="F470" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G470" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>An orange bird</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>1</v>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D471" t="n">
+        <v>4</v>
+      </c>
+      <c r="F471" t="n">
+        <v>5</v>
+      </c>
+      <c r="G471" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>An orange bird</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>1</v>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D472" t="n">
+        <v>4</v>
+      </c>
+      <c r="F472" t="n">
+        <v>4</v>
+      </c>
+      <c r="G472" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>An orange bird</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>1</v>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D473" t="n">
+        <v>5</v>
+      </c>
+      <c r="F473" t="n">
+        <v>5</v>
+      </c>
+      <c r="G473" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>An orange bird</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>1</v>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D474" t="n">
+        <v>5</v>
+      </c>
+      <c r="F474" t="n">
+        <v>5</v>
+      </c>
+      <c r="G474" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>An orange bird</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>1</v>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D475" t="n">
+        <v>3</v>
+      </c>
+      <c r="F475" t="n">
+        <v>3</v>
+      </c>
+      <c r="G475" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>An orange bird</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>1</v>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D476" t="n">
+        <v>4</v>
+      </c>
+      <c r="F476" t="n">
+        <v>3</v>
+      </c>
+      <c r="G476" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="2" t="inlineStr">
+        <is>
+          <t>An orange bird</t>
+        </is>
+      </c>
+      <c r="B477" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C477" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D477" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E477" s="2" t="inlineStr"/>
+      <c r="F477" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G477" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>An orange bird</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>2</v>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D478" t="n">
+        <v>4</v>
+      </c>
+      <c r="F478" t="n">
+        <v>5</v>
+      </c>
+      <c r="G478" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>An orange bird</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>2</v>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D479" t="n">
+        <v>4</v>
+      </c>
+      <c r="F479" t="n">
+        <v>3</v>
+      </c>
+      <c r="G479" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>An orange bird</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>2</v>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D480" t="n">
+        <v>5</v>
+      </c>
+      <c r="F480" t="n">
+        <v>5</v>
+      </c>
+      <c r="G480" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>An orange bird</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>2</v>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D481" t="n">
+        <v>5</v>
+      </c>
+      <c r="F481" t="n">
+        <v>5</v>
+      </c>
+      <c r="G481" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>An orange bird</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>2</v>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D482" t="n">
+        <v>3</v>
+      </c>
+      <c r="F482" t="n">
+        <v>4</v>
+      </c>
+      <c r="G482" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>An orange bird</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>2</v>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D483" t="n">
+        <v>4</v>
+      </c>
+      <c r="F483" t="n">
+        <v>4</v>
+      </c>
+      <c r="G483" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="2" t="inlineStr">
+        <is>
+          <t>An orange bird</t>
+        </is>
+      </c>
+      <c r="B484" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C484" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D484" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E484" s="2" t="inlineStr"/>
+      <c r="F484" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G484" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>A purple bird</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>0</v>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D485" t="n">
+        <v>4</v>
+      </c>
+      <c r="F485" t="n">
+        <v>5</v>
+      </c>
+      <c r="G485" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>A purple bird</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>0</v>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D486" t="n">
+        <v>5</v>
+      </c>
+      <c r="F486" t="n">
+        <v>5</v>
+      </c>
+      <c r="G486" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>A purple bird</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>0</v>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D487" t="n">
+        <v>5</v>
+      </c>
+      <c r="F487" t="n">
+        <v>4</v>
+      </c>
+      <c r="G487" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>A purple bird</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>0</v>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D488" t="n">
+        <v>5</v>
+      </c>
+      <c r="F488" t="n">
+        <v>5</v>
+      </c>
+      <c r="G488" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>A purple bird</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>0</v>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D489" t="n">
+        <v>4</v>
+      </c>
+      <c r="F489" t="n">
+        <v>4</v>
+      </c>
+      <c r="G489" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>A purple bird</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>0</v>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D490" t="n">
+        <v>3</v>
+      </c>
+      <c r="F490" t="n">
+        <v>4</v>
+      </c>
+      <c r="G490" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="2" t="inlineStr">
+        <is>
+          <t>A purple bird</t>
+        </is>
+      </c>
+      <c r="B491" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C491" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D491" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E491" s="2" t="inlineStr"/>
+      <c r="F491" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G491" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>A purple bird</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>1</v>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D492" t="n">
+        <v>4</v>
+      </c>
+      <c r="F492" t="n">
+        <v>3</v>
+      </c>
+      <c r="G492" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>A purple bird</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>1</v>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D493" t="n">
+        <v>5</v>
+      </c>
+      <c r="F493" t="n">
+        <v>4</v>
+      </c>
+      <c r="G493" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>A purple bird</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>1</v>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D494" t="n">
+        <v>5</v>
+      </c>
+      <c r="F494" t="n">
+        <v>5</v>
+      </c>
+      <c r="G494" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>A purple bird</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>1</v>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D495" t="n">
+        <v>5</v>
+      </c>
+      <c r="F495" t="n">
+        <v>5</v>
+      </c>
+      <c r="G495" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>A purple bird</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>1</v>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D496" t="n">
+        <v>4</v>
+      </c>
+      <c r="F496" t="n">
+        <v>5</v>
+      </c>
+      <c r="G496" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>A purple bird</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>1</v>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D497" t="n">
+        <v>3</v>
+      </c>
+      <c r="F497" t="n">
+        <v>2</v>
+      </c>
+      <c r="G497" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="2" t="inlineStr">
+        <is>
+          <t>A purple bird</t>
+        </is>
+      </c>
+      <c r="B498" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C498" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D498" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E498" s="2" t="inlineStr"/>
+      <c r="F498" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G498" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>A purple bird</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>2</v>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D499" t="n">
+        <v>4</v>
+      </c>
+      <c r="F499" t="n">
+        <v>4</v>
+      </c>
+      <c r="G499" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>A purple bird</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>2</v>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D500" t="n">
+        <v>5</v>
+      </c>
+      <c r="F500" t="n">
+        <v>4</v>
+      </c>
+      <c r="G500" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>A purple bird</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>2</v>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D501" t="n">
+        <v>5</v>
+      </c>
+      <c r="F501" t="n">
+        <v>5</v>
+      </c>
+      <c r="G501" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>A purple bird</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>2</v>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D502" t="n">
+        <v>5</v>
+      </c>
+      <c r="F502" t="n">
+        <v>5</v>
+      </c>
+      <c r="G502" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>A purple bird</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>2</v>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D503" t="n">
+        <v>4</v>
+      </c>
+      <c r="F503" t="n">
+        <v>5</v>
+      </c>
+      <c r="G503" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>A purple bird</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>2</v>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D504" t="n">
+        <v>5</v>
+      </c>
+      <c r="F504" t="n">
+        <v>4</v>
+      </c>
+      <c r="G504" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="2" t="inlineStr">
+        <is>
+          <t>A purple bird</t>
+        </is>
+      </c>
+      <c r="B505" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C505" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D505" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E505" s="2" t="inlineStr"/>
+      <c r="F505" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G505" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>A pink bird</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>0</v>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D506" t="n">
+        <v>3</v>
+      </c>
+      <c r="F506" t="n">
+        <v>4</v>
+      </c>
+      <c r="G506" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>A pink bird</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>0</v>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D507" t="n">
+        <v>2</v>
+      </c>
+      <c r="F507" t="n">
+        <v>2</v>
+      </c>
+      <c r="G507" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>A pink bird</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>0</v>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D508" t="n">
+        <v>5</v>
+      </c>
+      <c r="F508" t="n">
+        <v>5</v>
+      </c>
+      <c r="G508" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>A pink bird</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>0</v>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D509" t="n">
+        <v>5</v>
+      </c>
+      <c r="F509" t="n">
+        <v>5</v>
+      </c>
+      <c r="G509" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>A pink bird</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>0</v>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D510" t="n">
+        <v>2</v>
+      </c>
+      <c r="F510" t="n">
+        <v>1</v>
+      </c>
+      <c r="G510" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>A pink bird</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>0</v>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D511" t="n">
+        <v>5</v>
+      </c>
+      <c r="F511" t="n">
+        <v>3</v>
+      </c>
+      <c r="G511" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="2" t="inlineStr">
+        <is>
+          <t>A pink bird</t>
+        </is>
+      </c>
+      <c r="B512" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C512" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D512" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E512" s="2" t="inlineStr"/>
+      <c r="F512" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G512" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>A pink bird</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>1</v>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D513" t="n">
+        <v>5</v>
+      </c>
+      <c r="F513" t="n">
+        <v>2</v>
+      </c>
+      <c r="G513" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>A pink bird</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>1</v>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D514" t="n">
+        <v>5</v>
+      </c>
+      <c r="F514" t="n">
+        <v>5</v>
+      </c>
+      <c r="G514" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>A pink bird</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>1</v>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D515" t="n">
+        <v>4</v>
+      </c>
+      <c r="F515" t="n">
+        <v>5</v>
+      </c>
+      <c r="G515" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>A pink bird</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>1</v>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D516" t="n">
+        <v>5</v>
+      </c>
+      <c r="F516" t="n">
+        <v>5</v>
+      </c>
+      <c r="G516" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>A pink bird</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>1</v>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D517" t="n">
+        <v>4</v>
+      </c>
+      <c r="F517" t="n">
+        <v>5</v>
+      </c>
+      <c r="G517" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>A pink bird</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>1</v>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D518" t="n">
+        <v>5</v>
+      </c>
+      <c r="F518" t="n">
+        <v>4</v>
+      </c>
+      <c r="G518" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="2" t="inlineStr">
+        <is>
+          <t>A pink bird</t>
+        </is>
+      </c>
+      <c r="B519" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C519" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D519" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E519" s="2" t="inlineStr"/>
+      <c r="F519" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G519" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>A pink bird</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>2</v>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D520" t="n">
+        <v>4</v>
+      </c>
+      <c r="F520" t="n">
+        <v>2</v>
+      </c>
+      <c r="G520" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>A pink bird</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>2</v>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D521" t="n">
+        <v>2</v>
+      </c>
+      <c r="F521" t="n">
+        <v>2</v>
+      </c>
+      <c r="G521" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>A pink bird</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>2</v>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D522" t="n">
+        <v>5</v>
+      </c>
+      <c r="F522" t="n">
+        <v>5</v>
+      </c>
+      <c r="G522" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>A pink bird</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>2</v>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D523" t="n">
+        <v>5</v>
+      </c>
+      <c r="F523" t="n">
+        <v>4</v>
+      </c>
+      <c r="G523" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>A pink bird</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>2</v>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D524" t="n">
+        <v>5</v>
+      </c>
+      <c r="F524" t="n">
+        <v>5</v>
+      </c>
+      <c r="G524" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>A pink bird</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>2</v>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D525" t="n">
+        <v>5</v>
+      </c>
+      <c r="F525" t="n">
+        <v>4</v>
+      </c>
+      <c r="G525" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="2" t="inlineStr">
+        <is>
+          <t>A pink bird</t>
+        </is>
+      </c>
+      <c r="B526" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C526" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D526" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E526" s="2" t="inlineStr"/>
+      <c r="F526" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G526" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>A black bird</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>0</v>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D527" t="n">
+        <v>4</v>
+      </c>
+      <c r="F527" t="n">
+        <v>5</v>
+      </c>
+      <c r="G527" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>A black bird</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>0</v>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D528" t="n">
+        <v>3</v>
+      </c>
+      <c r="F528" t="n">
+        <v>5</v>
+      </c>
+      <c r="G528" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>A black bird</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>0</v>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D529" t="n">
+        <v>5</v>
+      </c>
+      <c r="F529" t="n">
+        <v>5</v>
+      </c>
+      <c r="G529" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>A black bird</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>0</v>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D530" t="n">
+        <v>5</v>
+      </c>
+      <c r="F530" t="n">
+        <v>5</v>
+      </c>
+      <c r="G530" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>A black bird</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>0</v>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D531" t="n">
+        <v>2</v>
+      </c>
+      <c r="F531" t="n">
+        <v>5</v>
+      </c>
+      <c r="G531" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>A black bird</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>0</v>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D532" t="n">
+        <v>5</v>
+      </c>
+      <c r="F532" t="n">
+        <v>5</v>
+      </c>
+      <c r="G532" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="2" t="inlineStr">
+        <is>
+          <t>A black bird</t>
+        </is>
+      </c>
+      <c r="B533" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C533" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D533" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E533" s="2" t="inlineStr"/>
+      <c r="F533" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G533" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>A black bird</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>1</v>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D534" t="n">
+        <v>4</v>
+      </c>
+      <c r="F534" t="n">
+        <v>5</v>
+      </c>
+      <c r="G534" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>A black bird</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>1</v>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D535" t="n">
+        <v>2</v>
+      </c>
+      <c r="F535" t="n">
+        <v>4</v>
+      </c>
+      <c r="G535" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>A black bird</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>1</v>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D536" t="n">
+        <v>5</v>
+      </c>
+      <c r="F536" t="n">
+        <v>5</v>
+      </c>
+      <c r="G536" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>A black bird</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>1</v>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D537" t="n">
+        <v>5</v>
+      </c>
+      <c r="F537" t="n">
+        <v>5</v>
+      </c>
+      <c r="G537" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>A black bird</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>1</v>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D538" t="n">
+        <v>4</v>
+      </c>
+      <c r="F538" t="n">
+        <v>5</v>
+      </c>
+      <c r="G538" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>A black bird</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>1</v>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D539" t="n">
+        <v>5</v>
+      </c>
+      <c r="F539" t="n">
+        <v>4</v>
+      </c>
+      <c r="G539" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="inlineStr">
+        <is>
+          <t>A black bird</t>
+        </is>
+      </c>
+      <c r="B540" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C540" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D540" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E540" s="2" t="inlineStr"/>
+      <c r="F540" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G540" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>A black bird</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>2</v>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D541" t="n">
+        <v>4</v>
+      </c>
+      <c r="F541" t="n">
+        <v>5</v>
+      </c>
+      <c r="G541" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>A black bird</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>2</v>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D542" t="n">
+        <v>2</v>
+      </c>
+      <c r="F542" t="n">
+        <v>3</v>
+      </c>
+      <c r="G542" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>A black bird</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>2</v>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D543" t="n">
+        <v>5</v>
+      </c>
+      <c r="F543" t="n">
+        <v>5</v>
+      </c>
+      <c r="G543" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>A black bird</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>2</v>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D544" t="n">
+        <v>5</v>
+      </c>
+      <c r="F544" t="n">
+        <v>5</v>
+      </c>
+      <c r="G544" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>A black bird</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>2</v>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D545" t="n">
+        <v>4</v>
+      </c>
+      <c r="F545" t="n">
+        <v>5</v>
+      </c>
+      <c r="G545" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>A black bird</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>2</v>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D546" t="n">
+        <v>5</v>
+      </c>
+      <c r="F546" t="n">
+        <v>4</v>
+      </c>
+      <c r="G546" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="inlineStr">
+        <is>
+          <t>A black bird</t>
+        </is>
+      </c>
+      <c r="B547" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C547" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D547" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E547" s="2" t="inlineStr"/>
+      <c r="F547" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G547" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>A white bird</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>0</v>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D548" t="n">
+        <v>4</v>
+      </c>
+      <c r="F548" t="n">
+        <v>5</v>
+      </c>
+      <c r="G548" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>A white bird</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>0</v>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D549" t="n">
+        <v>4</v>
+      </c>
+      <c r="F549" t="n">
+        <v>4</v>
+      </c>
+      <c r="G549" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>A white bird</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>0</v>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D550" t="n">
+        <v>5</v>
+      </c>
+      <c r="F550" t="n">
+        <v>5</v>
+      </c>
+      <c r="G550" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>A white bird</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>0</v>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D551" t="n">
+        <v>5</v>
+      </c>
+      <c r="F551" t="n">
+        <v>5</v>
+      </c>
+      <c r="G551" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>A white bird</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>0</v>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D552" t="n">
+        <v>2</v>
+      </c>
+      <c r="F552" t="n">
+        <v>5</v>
+      </c>
+      <c r="G552" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>A white bird</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>0</v>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D553" t="n">
+        <v>5</v>
+      </c>
+      <c r="F553" t="n">
+        <v>4</v>
+      </c>
+      <c r="G553" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="inlineStr">
+        <is>
+          <t>A white bird</t>
+        </is>
+      </c>
+      <c r="B554" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C554" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D554" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E554" s="2" t="inlineStr"/>
+      <c r="F554" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G554" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>A white bird</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>1</v>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D555" t="n">
+        <v>4</v>
+      </c>
+      <c r="F555" t="n">
+        <v>5</v>
+      </c>
+      <c r="G555" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>A white bird</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>1</v>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D556" t="n">
+        <v>2</v>
+      </c>
+      <c r="F556" t="n">
+        <v>4</v>
+      </c>
+      <c r="G556" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>A white bird</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>1</v>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D557" t="n">
+        <v>5</v>
+      </c>
+      <c r="F557" t="n">
+        <v>5</v>
+      </c>
+      <c r="G557" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>A white bird</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>1</v>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D558" t="n">
+        <v>5</v>
+      </c>
+      <c r="F558" t="n">
+        <v>5</v>
+      </c>
+      <c r="G558" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>A white bird</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>1</v>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D559" t="n">
+        <v>3</v>
+      </c>
+      <c r="F559" t="n">
+        <v>4</v>
+      </c>
+      <c r="G559" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>A white bird</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>1</v>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D560" t="n">
+        <v>5</v>
+      </c>
+      <c r="F560" t="n">
+        <v>5</v>
+      </c>
+      <c r="G560" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="2" t="inlineStr">
+        <is>
+          <t>A white bird</t>
+        </is>
+      </c>
+      <c r="B561" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C561" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D561" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E561" s="2" t="inlineStr"/>
+      <c r="F561" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G561" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>A white bird</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>2</v>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D562" t="n">
+        <v>5</v>
+      </c>
+      <c r="F562" t="n">
+        <v>3</v>
+      </c>
+      <c r="G562" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>A white bird</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>2</v>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D563" t="n">
+        <v>2</v>
+      </c>
+      <c r="F563" t="n">
+        <v>3</v>
+      </c>
+      <c r="G563" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>A white bird</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>2</v>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D564" t="n">
+        <v>5</v>
+      </c>
+      <c r="F564" t="n">
+        <v>5</v>
+      </c>
+      <c r="G564" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>A white bird</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>2</v>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D565" t="n">
+        <v>5</v>
+      </c>
+      <c r="F565" t="n">
+        <v>5</v>
+      </c>
+      <c r="G565" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>A white bird</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>2</v>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D566" t="n">
+        <v>2</v>
+      </c>
+      <c r="F566" t="n">
+        <v>4</v>
+      </c>
+      <c r="G566" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>A white bird</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>2</v>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D567" t="n">
+        <v>5</v>
+      </c>
+      <c r="F567" t="n">
+        <v>5</v>
+      </c>
+      <c r="G567" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="2" t="inlineStr">
+        <is>
+          <t>A white bird</t>
+        </is>
+      </c>
+      <c r="B568" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C568" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D568" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E568" s="2" t="inlineStr"/>
+      <c r="F568" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G568" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>A black cat</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>0</v>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D569" t="n">
+        <v>4</v>
+      </c>
+      <c r="F569" t="n">
+        <v>5</v>
+      </c>
+      <c r="G569" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>A black cat</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>0</v>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D570" t="n">
+        <v>5</v>
+      </c>
+      <c r="F570" t="n">
+        <v>4</v>
+      </c>
+      <c r="G570" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>A black cat</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>0</v>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D571" t="n">
+        <v>5</v>
+      </c>
+      <c r="F571" t="n">
+        <v>5</v>
+      </c>
+      <c r="G571" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>A black cat</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>0</v>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D572" t="n">
+        <v>5</v>
+      </c>
+      <c r="F572" t="n">
+        <v>5</v>
+      </c>
+      <c r="G572" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>A black cat</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>0</v>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D573" t="n">
+        <v>4</v>
+      </c>
+      <c r="F573" t="n">
+        <v>5</v>
+      </c>
+      <c r="G573" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>A black cat</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>0</v>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D574" t="n">
+        <v>5</v>
+      </c>
+      <c r="F574" t="n">
+        <v>5</v>
+      </c>
+      <c r="G574" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="2" t="inlineStr">
+        <is>
+          <t>A black cat</t>
+        </is>
+      </c>
+      <c r="B575" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C575" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D575" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E575" s="2" t="inlineStr"/>
+      <c r="F575" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G575" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>A black cat</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>1</v>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D576" t="n">
+        <v>4</v>
+      </c>
+      <c r="F576" t="n">
+        <v>5</v>
+      </c>
+      <c r="G576" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>A black cat</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>1</v>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D577" t="n">
+        <v>5</v>
+      </c>
+      <c r="F577" t="n">
+        <v>5</v>
+      </c>
+      <c r="G577" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>A black cat</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>1</v>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D578" t="n">
+        <v>5</v>
+      </c>
+      <c r="F578" t="n">
+        <v>5</v>
+      </c>
+      <c r="G578" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>A black cat</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>1</v>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D579" t="n">
+        <v>5</v>
+      </c>
+      <c r="F579" t="n">
+        <v>4</v>
+      </c>
+      <c r="G579" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>A black cat</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>1</v>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D580" t="n">
+        <v>4</v>
+      </c>
+      <c r="F580" t="n">
+        <v>5</v>
+      </c>
+      <c r="G580" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>A black cat</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>1</v>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D581" t="n">
+        <v>5</v>
+      </c>
+      <c r="F581" t="n">
+        <v>5</v>
+      </c>
+      <c r="G581" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="2" t="inlineStr">
+        <is>
+          <t>A black cat</t>
+        </is>
+      </c>
+      <c r="B582" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C582" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D582" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E582" s="2" t="inlineStr"/>
+      <c r="F582" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G582" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>A black cat</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>2</v>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D583" t="n">
+        <v>4</v>
+      </c>
+      <c r="F583" t="n">
+        <v>4</v>
+      </c>
+      <c r="G583" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>A black cat</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>2</v>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D584" t="n">
+        <v>5</v>
+      </c>
+      <c r="F584" t="n">
+        <v>5</v>
+      </c>
+      <c r="G584" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>A black cat</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>2</v>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D585" t="n">
+        <v>5</v>
+      </c>
+      <c r="F585" t="n">
+        <v>5</v>
+      </c>
+      <c r="G585" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>A black cat</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>2</v>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D586" t="n">
+        <v>5</v>
+      </c>
+      <c r="F586" t="n">
+        <v>4</v>
+      </c>
+      <c r="G586" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>A black cat</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>2</v>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D587" t="n">
+        <v>4</v>
+      </c>
+      <c r="F587" t="n">
+        <v>5</v>
+      </c>
+      <c r="G587" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>A black cat</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>2</v>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D588" t="n">
+        <v>5</v>
+      </c>
+      <c r="F588" t="n">
+        <v>5</v>
+      </c>
+      <c r="G588" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="2" t="inlineStr">
+        <is>
+          <t>A black cat</t>
+        </is>
+      </c>
+      <c r="B589" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C589" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D589" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E589" s="2" t="inlineStr"/>
+      <c r="F589" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G589" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>A white cat</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>0</v>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D590" t="n">
+        <v>4</v>
+      </c>
+      <c r="F590" t="n">
+        <v>5</v>
+      </c>
+      <c r="G590" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>A white cat</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>0</v>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D591" t="n">
+        <v>2</v>
+      </c>
+      <c r="F591" t="n">
+        <v>3</v>
+      </c>
+      <c r="G591" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>A white cat</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>0</v>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D592" t="n">
+        <v>5</v>
+      </c>
+      <c r="F592" t="n">
+        <v>5</v>
+      </c>
+      <c r="G592" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>A white cat</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>0</v>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D593" t="n">
+        <v>4</v>
+      </c>
+      <c r="F593" t="n">
+        <v>4</v>
+      </c>
+      <c r="G593" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>A white cat</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>0</v>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D594" t="n">
+        <v>5</v>
+      </c>
+      <c r="F594" t="n">
+        <v>4</v>
+      </c>
+      <c r="G594" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>A white cat</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>0</v>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D595" t="n">
+        <v>4</v>
+      </c>
+      <c r="F595" t="n">
+        <v>5</v>
+      </c>
+      <c r="G595" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="2" t="inlineStr">
+        <is>
+          <t>A white cat</t>
+        </is>
+      </c>
+      <c r="B596" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C596" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D596" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E596" s="2" t="inlineStr"/>
+      <c r="F596" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G596" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>A white cat</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>1</v>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D597" t="n">
+        <v>4</v>
+      </c>
+      <c r="F597" t="n">
+        <v>4</v>
+      </c>
+      <c r="G597" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>A white cat</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>1</v>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D598" t="n">
+        <v>2</v>
+      </c>
+      <c r="F598" t="n">
+        <v>3</v>
+      </c>
+      <c r="G598" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>A white cat</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>1</v>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D599" t="n">
+        <v>5</v>
+      </c>
+      <c r="F599" t="n">
+        <v>5</v>
+      </c>
+      <c r="G599" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>A white cat</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>1</v>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D600" t="n">
+        <v>5</v>
+      </c>
+      <c r="F600" t="n">
+        <v>5</v>
+      </c>
+      <c r="G600" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>A white cat</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>1</v>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D601" t="n">
+        <v>4</v>
+      </c>
+      <c r="F601" t="n">
+        <v>4</v>
+      </c>
+      <c r="G601" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>A white cat</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>1</v>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D602" t="n">
+        <v>5</v>
+      </c>
+      <c r="F602" t="n">
+        <v>5</v>
+      </c>
+      <c r="G602" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="2" t="inlineStr">
+        <is>
+          <t>A white cat</t>
+        </is>
+      </c>
+      <c r="B603" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C603" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D603" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E603" s="2" t="inlineStr"/>
+      <c r="F603" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G603" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>A white cat</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>2</v>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D604" t="n">
+        <v>4</v>
+      </c>
+      <c r="F604" t="n">
+        <v>3</v>
+      </c>
+      <c r="G604" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>A white cat</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>2</v>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D605" t="n">
+        <v>3</v>
+      </c>
+      <c r="F605" t="n">
+        <v>3</v>
+      </c>
+      <c r="G605" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>A white cat</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>2</v>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D606" t="n">
+        <v>5</v>
+      </c>
+      <c r="F606" t="n">
+        <v>5</v>
+      </c>
+      <c r="G606" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>A white cat</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>2</v>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D607" t="n">
+        <v>5</v>
+      </c>
+      <c r="F607" t="n">
+        <v>5</v>
+      </c>
+      <c r="G607" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>A white cat</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>2</v>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D608" t="n">
+        <v>4</v>
+      </c>
+      <c r="F608" t="n">
+        <v>4</v>
+      </c>
+      <c r="G608" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>A white cat</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>2</v>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D609" t="n">
+        <v>4</v>
+      </c>
+      <c r="F609" t="n">
+        <v>5</v>
+      </c>
+      <c r="G609" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="2" t="inlineStr">
+        <is>
+          <t>A white cat</t>
+        </is>
+      </c>
+      <c r="B610" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C610" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D610" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E610" s="2" t="inlineStr"/>
+      <c r="F610" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G610" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>An orange cat</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>0</v>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D611" t="n">
+        <v>4</v>
+      </c>
+      <c r="F611" t="n">
+        <v>5</v>
+      </c>
+      <c r="G611" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>An orange cat</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>0</v>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D612" t="n">
+        <v>5</v>
+      </c>
+      <c r="F612" t="n">
+        <v>5</v>
+      </c>
+      <c r="G612" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>An orange cat</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>0</v>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D613" t="n">
+        <v>5</v>
+      </c>
+      <c r="F613" t="n">
+        <v>5</v>
+      </c>
+      <c r="G613" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>An orange cat</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>0</v>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D614" t="n">
+        <v>5</v>
+      </c>
+      <c r="F614" t="n">
+        <v>4</v>
+      </c>
+      <c r="G614" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>An orange cat</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>0</v>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D615" t="n">
+        <v>4</v>
+      </c>
+      <c r="F615" t="n">
+        <v>4</v>
+      </c>
+      <c r="G615" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>An orange cat</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>0</v>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D616" t="n">
+        <v>5</v>
+      </c>
+      <c r="F616" t="n">
+        <v>5</v>
+      </c>
+      <c r="G616" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="2" t="inlineStr">
+        <is>
+          <t>An orange cat</t>
+        </is>
+      </c>
+      <c r="B617" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C617" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D617" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E617" s="2" t="inlineStr"/>
+      <c r="F617" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G617" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>An orange cat</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>1</v>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D618" t="n">
+        <v>5</v>
+      </c>
+      <c r="F618" t="n">
+        <v>5</v>
+      </c>
+      <c r="G618" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>An orange cat</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>1</v>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D619" t="n">
+        <v>5</v>
+      </c>
+      <c r="F619" t="n">
+        <v>5</v>
+      </c>
+      <c r="G619" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>An orange cat</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>1</v>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D620" t="n">
+        <v>5</v>
+      </c>
+      <c r="F620" t="n">
+        <v>5</v>
+      </c>
+      <c r="G620" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>An orange cat</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>1</v>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D621" t="n">
+        <v>4</v>
+      </c>
+      <c r="F621" t="n">
+        <v>4</v>
+      </c>
+      <c r="G621" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>An orange cat</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>1</v>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D622" t="n">
+        <v>5</v>
+      </c>
+      <c r="F622" t="n">
+        <v>5</v>
+      </c>
+      <c r="G622" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>An orange cat</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>1</v>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D623" t="n">
+        <v>4</v>
+      </c>
+      <c r="F623" t="n">
+        <v>5</v>
+      </c>
+      <c r="G623" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="2" t="inlineStr">
+        <is>
+          <t>An orange cat</t>
+        </is>
+      </c>
+      <c r="B624" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C624" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D624" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E624" s="2" t="inlineStr"/>
+      <c r="F624" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G624" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>An orange cat</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>2</v>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D625" t="n">
+        <v>4</v>
+      </c>
+      <c r="F625" t="n">
+        <v>5</v>
+      </c>
+      <c r="G625" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>An orange cat</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>2</v>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D626" t="n">
+        <v>5</v>
+      </c>
+      <c r="F626" t="n">
+        <v>5</v>
+      </c>
+      <c r="G626" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>An orange cat</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>2</v>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D627" t="n">
+        <v>5</v>
+      </c>
+      <c r="F627" t="n">
+        <v>5</v>
+      </c>
+      <c r="G627" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>An orange cat</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>2</v>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D628" t="n">
+        <v>4</v>
+      </c>
+      <c r="F628" t="n">
+        <v>4</v>
+      </c>
+      <c r="G628" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>An orange cat</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>2</v>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D629" t="n">
+        <v>5</v>
+      </c>
+      <c r="F629" t="n">
+        <v>5</v>
+      </c>
+      <c r="G629" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>An orange cat</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>2</v>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D630" t="n">
+        <v>5</v>
+      </c>
+      <c r="F630" t="n">
+        <v>5</v>
+      </c>
+      <c r="G630" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="2" t="inlineStr">
+        <is>
+          <t>An orange cat</t>
+        </is>
+      </c>
+      <c r="B631" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C631" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D631" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E631" s="2" t="inlineStr"/>
+      <c r="F631" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G631" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>A yellow cat</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>0</v>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D632" t="n">
+        <v>4</v>
+      </c>
+      <c r="F632" t="n">
+        <v>4</v>
+      </c>
+      <c r="G632" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>A yellow cat</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>0</v>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D633" t="n">
+        <v>4</v>
+      </c>
+      <c r="F633" t="n">
+        <v>3</v>
+      </c>
+      <c r="G633" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>A yellow cat</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>0</v>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D634" t="n">
+        <v>5</v>
+      </c>
+      <c r="F634" t="n">
+        <v>5</v>
+      </c>
+      <c r="G634" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>A yellow cat</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>0</v>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D635" t="n">
+        <v>5</v>
+      </c>
+      <c r="F635" t="n">
+        <v>5</v>
+      </c>
+      <c r="G635" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>A yellow cat</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>0</v>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D636" t="n">
+        <v>3</v>
+      </c>
+      <c r="F636" t="n">
+        <v>5</v>
+      </c>
+      <c r="G636" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>A yellow cat</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>0</v>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D637" t="n">
+        <v>2</v>
+      </c>
+      <c r="F637" t="n">
+        <v>2</v>
+      </c>
+      <c r="G637" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="2" t="inlineStr">
+        <is>
+          <t>A yellow cat</t>
+        </is>
+      </c>
+      <c r="B638" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C638" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D638" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E638" s="2" t="inlineStr"/>
+      <c r="F638" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G638" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>A yellow cat</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>1</v>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D639" t="n">
+        <v>4</v>
+      </c>
+      <c r="F639" t="n">
+        <v>3</v>
+      </c>
+      <c r="G639" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>A yellow cat</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>1</v>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D640" t="n">
+        <v>5</v>
+      </c>
+      <c r="F640" t="n">
+        <v>3</v>
+      </c>
+      <c r="G640" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>A yellow cat</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>1</v>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D641" t="n">
+        <v>5</v>
+      </c>
+      <c r="F641" t="n">
+        <v>5</v>
+      </c>
+      <c r="G641" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>A yellow cat</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>1</v>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D642" t="n">
+        <v>4</v>
+      </c>
+      <c r="F642" t="n">
+        <v>5</v>
+      </c>
+      <c r="G642" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>A yellow cat</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>1</v>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D643" t="n">
+        <v>2</v>
+      </c>
+      <c r="F643" t="n">
+        <v>4</v>
+      </c>
+      <c r="G643" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>A yellow cat</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>1</v>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D644" t="n">
+        <v>5</v>
+      </c>
+      <c r="F644" t="n">
+        <v>5</v>
+      </c>
+      <c r="G644" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="2" t="inlineStr">
+        <is>
+          <t>A yellow cat</t>
+        </is>
+      </c>
+      <c r="B645" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C645" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D645" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E645" s="2" t="inlineStr"/>
+      <c r="F645" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G645" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>A yellow cat</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>2</v>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D646" t="n">
+        <v>4</v>
+      </c>
+      <c r="F646" t="n">
+        <v>3</v>
+      </c>
+      <c r="G646" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>A yellow cat</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>2</v>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D647" t="n">
+        <v>4</v>
+      </c>
+      <c r="F647" t="n">
+        <v>4</v>
+      </c>
+      <c r="G647" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>A yellow cat</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>2</v>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D648" t="n">
+        <v>5</v>
+      </c>
+      <c r="F648" t="n">
+        <v>5</v>
+      </c>
+      <c r="G648" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>A yellow cat</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>2</v>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D649" t="n">
+        <v>4</v>
+      </c>
+      <c r="F649" t="n">
+        <v>4</v>
+      </c>
+      <c r="G649" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>A yellow cat</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>2</v>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D650" t="n">
+        <v>5</v>
+      </c>
+      <c r="F650" t="n">
+        <v>2</v>
+      </c>
+      <c r="G650" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>A yellow cat</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>2</v>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D651" t="n">
+        <v>5</v>
+      </c>
+      <c r="F651" t="n">
+        <v>4</v>
+      </c>
+      <c r="G651" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="2" t="inlineStr">
+        <is>
+          <t>A yellow cat</t>
+        </is>
+      </c>
+      <c r="B652" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C652" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D652" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E652" s="2" t="inlineStr"/>
+      <c r="F652" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G652" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>A red umbrella</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>0</v>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D653" t="n">
+        <v>5</v>
+      </c>
+      <c r="F653" t="n">
+        <v>5</v>
+      </c>
+      <c r="G653" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>A red umbrella</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>0</v>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D654" t="n">
+        <v>5</v>
+      </c>
+      <c r="F654" t="n">
+        <v>5</v>
+      </c>
+      <c r="G654" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>A red umbrella</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>0</v>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D655" t="n">
+        <v>4</v>
+      </c>
+      <c r="F655" t="n">
+        <v>4</v>
+      </c>
+      <c r="G655" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>A red umbrella</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>0</v>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D656" t="n">
+        <v>4</v>
+      </c>
+      <c r="F656" t="n">
+        <v>5</v>
+      </c>
+      <c r="G656" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>A red umbrella</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>0</v>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D657" t="n">
+        <v>5</v>
+      </c>
+      <c r="F657" t="n">
+        <v>5</v>
+      </c>
+      <c r="G657" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>A red umbrella</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>0</v>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D658" t="n">
+        <v>4</v>
+      </c>
+      <c r="F658" t="n">
+        <v>4</v>
+      </c>
+      <c r="G658" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="2" t="inlineStr">
+        <is>
+          <t>A red umbrella</t>
+        </is>
+      </c>
+      <c r="B659" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C659" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D659" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E659" s="2" t="inlineStr"/>
+      <c r="F659" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G659" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>A red umbrella</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>1</v>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D660" t="n">
+        <v>5</v>
+      </c>
+      <c r="F660" t="n">
+        <v>5</v>
+      </c>
+      <c r="G660" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>A red umbrella</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>1</v>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D661" t="n">
+        <v>3</v>
+      </c>
+      <c r="F661" t="n">
+        <v>3</v>
+      </c>
+      <c r="G661" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>A red umbrella</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>1</v>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D662" t="n">
+        <v>4</v>
+      </c>
+      <c r="F662" t="n">
+        <v>3</v>
+      </c>
+      <c r="G662" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>A red umbrella</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>1</v>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D663" t="n">
+        <v>2</v>
+      </c>
+      <c r="F663" t="n">
+        <v>2</v>
+      </c>
+      <c r="G663" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>A red umbrella</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>1</v>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D664" t="n">
+        <v>4</v>
+      </c>
+      <c r="F664" t="n">
+        <v>4</v>
+      </c>
+      <c r="G664" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>A red umbrella</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>1</v>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D665" t="n">
+        <v>5</v>
+      </c>
+      <c r="F665" t="n">
+        <v>5</v>
+      </c>
+      <c r="G665" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="2" t="inlineStr">
+        <is>
+          <t>A red umbrella</t>
+        </is>
+      </c>
+      <c r="B666" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C666" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D666" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E666" s="2" t="inlineStr"/>
+      <c r="F666" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G666" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>A red umbrella</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>2</v>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D667" t="n">
+        <v>5</v>
+      </c>
+      <c r="F667" t="n">
+        <v>3</v>
+      </c>
+      <c r="G667" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>A red umbrella</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>2</v>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D668" t="n">
+        <v>4</v>
+      </c>
+      <c r="F668" t="n">
+        <v>5</v>
+      </c>
+      <c r="G668" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>A red umbrella</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
+        <v>2</v>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D669" t="n">
+        <v>5</v>
+      </c>
+      <c r="F669" t="n">
+        <v>5</v>
+      </c>
+      <c r="G669" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>A red umbrella</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>2</v>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D670" t="n">
+        <v>3</v>
+      </c>
+      <c r="F670" t="n">
+        <v>3</v>
+      </c>
+      <c r="G670" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>A red umbrella</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>2</v>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D671" t="n">
+        <v>4</v>
+      </c>
+      <c r="F671" t="n">
+        <v>2</v>
+      </c>
+      <c r="G671" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>A red umbrella</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>2</v>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D672" t="n">
+        <v>5</v>
+      </c>
+      <c r="F672" t="n">
+        <v>4</v>
+      </c>
+      <c r="G672" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="2" t="inlineStr">
+        <is>
+          <t>A red umbrella</t>
+        </is>
+      </c>
+      <c r="B673" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C673" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D673" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E673" s="2" t="inlineStr"/>
+      <c r="F673" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G673" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>A green umbrella</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>0</v>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D674" t="n">
+        <v>4</v>
+      </c>
+      <c r="F674" t="n">
+        <v>3</v>
+      </c>
+      <c r="G674" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>A green umbrella</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>0</v>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D675" t="n">
+        <v>3</v>
+      </c>
+      <c r="F675" t="n">
+        <v>5</v>
+      </c>
+      <c r="G675" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>A green umbrella</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>0</v>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D676" t="n">
+        <v>5</v>
+      </c>
+      <c r="F676" t="n">
+        <v>5</v>
+      </c>
+      <c r="G676" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>A green umbrella</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>0</v>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D677" t="n">
+        <v>5</v>
+      </c>
+      <c r="F677" t="n">
+        <v>5</v>
+      </c>
+      <c r="G677" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>A green umbrella</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>0</v>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D678" t="n">
+        <v>4</v>
+      </c>
+      <c r="F678" t="n">
+        <v>4</v>
+      </c>
+      <c r="G678" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>A green umbrella</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>0</v>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D679" t="n">
+        <v>4</v>
+      </c>
+      <c r="F679" t="n">
+        <v>3</v>
+      </c>
+      <c r="G679" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="2" t="inlineStr">
+        <is>
+          <t>A green umbrella</t>
+        </is>
+      </c>
+      <c r="B680" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C680" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D680" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E680" s="2" t="inlineStr"/>
+      <c r="F680" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G680" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>A green umbrella</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>1</v>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D681" t="n">
+        <v>5</v>
+      </c>
+      <c r="F681" t="n">
+        <v>4</v>
+      </c>
+      <c r="G681" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>A green umbrella</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>1</v>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D682" t="n">
+        <v>5</v>
+      </c>
+      <c r="F682" t="n">
+        <v>5</v>
+      </c>
+      <c r="G682" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>A green umbrella</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>1</v>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D683" t="n">
+        <v>5</v>
+      </c>
+      <c r="F683" t="n">
+        <v>5</v>
+      </c>
+      <c r="G683" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>A green umbrella</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>1</v>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D684" t="n">
+        <v>5</v>
+      </c>
+      <c r="F684" t="n">
+        <v>5</v>
+      </c>
+      <c r="G684" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>A green umbrella</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>1</v>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D685" t="n">
+        <v>4</v>
+      </c>
+      <c r="F685" t="n">
+        <v>4</v>
+      </c>
+      <c r="G685" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>A green umbrella</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>1</v>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D686" t="n">
+        <v>3</v>
+      </c>
+      <c r="F686" t="n">
+        <v>3</v>
+      </c>
+      <c r="G686" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="2" t="inlineStr">
+        <is>
+          <t>A green umbrella</t>
+        </is>
+      </c>
+      <c r="B687" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C687" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D687" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E687" s="2" t="inlineStr"/>
+      <c r="F687" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G687" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>A green umbrella</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>2</v>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D688" t="n">
+        <v>5</v>
+      </c>
+      <c r="F688" t="n">
+        <v>3</v>
+      </c>
+      <c r="G688" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>A green umbrella</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>2</v>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D689" t="n">
+        <v>4</v>
+      </c>
+      <c r="F689" t="n">
+        <v>4</v>
+      </c>
+      <c r="G689" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>A green umbrella</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>2</v>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D690" t="n">
+        <v>5</v>
+      </c>
+      <c r="F690" t="n">
+        <v>5</v>
+      </c>
+      <c r="G690" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>A green umbrella</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>2</v>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D691" t="n">
+        <v>5</v>
+      </c>
+      <c r="F691" t="n">
+        <v>5</v>
+      </c>
+      <c r="G691" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>A green umbrella</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>2</v>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D692" t="n">
+        <v>5</v>
+      </c>
+      <c r="F692" t="n">
+        <v>3</v>
+      </c>
+      <c r="G692" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>A green umbrella</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>2</v>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D693" t="n">
+        <v>2</v>
+      </c>
+      <c r="F693" t="n">
+        <v>2</v>
+      </c>
+      <c r="G693" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="2" t="inlineStr">
+        <is>
+          <t>A green umbrella</t>
+        </is>
+      </c>
+      <c r="B694" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C694" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D694" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E694" s="2" t="inlineStr"/>
+      <c r="F694" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G694" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>A blue umbrella</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>0</v>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D695" t="n">
+        <v>5</v>
+      </c>
+      <c r="F695" t="n">
+        <v>5</v>
+      </c>
+      <c r="G695" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>A blue umbrella</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>0</v>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D696" t="n">
+        <v>5</v>
+      </c>
+      <c r="F696" t="n">
+        <v>5</v>
+      </c>
+      <c r="G696" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>A blue umbrella</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>0</v>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D697" t="n">
+        <v>4</v>
+      </c>
+      <c r="F697" t="n">
+        <v>5</v>
+      </c>
+      <c r="G697" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>A blue umbrella</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>0</v>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D698" t="n">
+        <v>5</v>
+      </c>
+      <c r="F698" t="n">
+        <v>5</v>
+      </c>
+      <c r="G698" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>A blue umbrella</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>0</v>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D699" t="n">
+        <v>2</v>
+      </c>
+      <c r="F699" t="n">
+        <v>1</v>
+      </c>
+      <c r="G699" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>A blue umbrella</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>0</v>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D700" t="n">
+        <v>5</v>
+      </c>
+      <c r="F700" t="n">
+        <v>3</v>
+      </c>
+      <c r="G700" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="2" t="inlineStr">
+        <is>
+          <t>A blue umbrella</t>
+        </is>
+      </c>
+      <c r="B701" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C701" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D701" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E701" s="2" t="inlineStr"/>
+      <c r="F701" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G701" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>A blue umbrella</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>1</v>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D702" t="n">
+        <v>5</v>
+      </c>
+      <c r="F702" t="n">
+        <v>3</v>
+      </c>
+      <c r="G702" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>A blue umbrella</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>1</v>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D703" t="n">
+        <v>5</v>
+      </c>
+      <c r="F703" t="n">
+        <v>5</v>
+      </c>
+      <c r="G703" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>A blue umbrella</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>1</v>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D704" t="n">
+        <v>5</v>
+      </c>
+      <c r="F704" t="n">
+        <v>5</v>
+      </c>
+      <c r="G704" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>A blue umbrella</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>1</v>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D705" t="n">
+        <v>5</v>
+      </c>
+      <c r="F705" t="n">
+        <v>4</v>
+      </c>
+      <c r="G705" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>A blue umbrella</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>1</v>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D706" t="n">
+        <v>4</v>
+      </c>
+      <c r="F706" t="n">
+        <v>4</v>
+      </c>
+      <c r="G706" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>A blue umbrella</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>1</v>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D707" t="n">
+        <v>4</v>
+      </c>
+      <c r="F707" t="n">
+        <v>3</v>
+      </c>
+      <c r="G707" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="2" t="inlineStr">
+        <is>
+          <t>A blue umbrella</t>
+        </is>
+      </c>
+      <c r="B708" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C708" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D708" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E708" s="2" t="inlineStr"/>
+      <c r="F708" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G708" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>A blue umbrella</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>2</v>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D709" t="n">
+        <v>5</v>
+      </c>
+      <c r="F709" t="n">
+        <v>3</v>
+      </c>
+      <c r="G709" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>A blue umbrella</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>2</v>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D710" t="n">
+        <v>5</v>
+      </c>
+      <c r="F710" t="n">
+        <v>5</v>
+      </c>
+      <c r="G710" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>A blue umbrella</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>2</v>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D711" t="n">
+        <v>5</v>
+      </c>
+      <c r="F711" t="n">
+        <v>5</v>
+      </c>
+      <c r="G711" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>A blue umbrella</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>2</v>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D712" t="n">
+        <v>5</v>
+      </c>
+      <c r="F712" t="n">
+        <v>5</v>
+      </c>
+      <c r="G712" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>A blue umbrella</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>2</v>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D713" t="n">
+        <v>2</v>
+      </c>
+      <c r="F713" t="n">
+        <v>1</v>
+      </c>
+      <c r="G713" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>A blue umbrella</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>2</v>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D714" t="n">
+        <v>5</v>
+      </c>
+      <c r="F714" t="n">
+        <v>4</v>
+      </c>
+      <c r="G714" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="2" t="inlineStr">
+        <is>
+          <t>A blue umbrella</t>
+        </is>
+      </c>
+      <c r="B715" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C715" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D715" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E715" s="2" t="inlineStr"/>
+      <c r="F715" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G715" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>A yellow umbrella</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>0</v>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D716" t="n">
+        <v>5</v>
+      </c>
+      <c r="F716" t="n">
+        <v>5</v>
+      </c>
+      <c r="G716" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>A yellow umbrella</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>0</v>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D717" t="n">
+        <v>5</v>
+      </c>
+      <c r="F717" t="n">
+        <v>5</v>
+      </c>
+      <c r="G717" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>A yellow umbrella</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>0</v>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D718" t="n">
+        <v>5</v>
+      </c>
+      <c r="F718" t="n">
+        <v>5</v>
+      </c>
+      <c r="G718" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>A yellow umbrella</t>
+        </is>
+      </c>
+      <c r="B719" t="n">
+        <v>0</v>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D719" t="n">
+        <v>5</v>
+      </c>
+      <c r="F719" t="n">
+        <v>4</v>
+      </c>
+      <c r="G719" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>A yellow umbrella</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>0</v>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D720" t="n">
+        <v>2</v>
+      </c>
+      <c r="F720" t="n">
+        <v>2</v>
+      </c>
+      <c r="G720" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>A yellow umbrella</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>0</v>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D721" t="n">
+        <v>5</v>
+      </c>
+      <c r="F721" t="n">
+        <v>3</v>
+      </c>
+      <c r="G721" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="2" t="inlineStr">
+        <is>
+          <t>A yellow umbrella</t>
+        </is>
+      </c>
+      <c r="B722" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C722" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D722" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E722" s="2" t="inlineStr"/>
+      <c r="F722" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G722" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>A yellow umbrella</t>
+        </is>
+      </c>
+      <c r="B723" t="n">
+        <v>1</v>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D723" t="n">
+        <v>5</v>
+      </c>
+      <c r="F723" t="n">
+        <v>5</v>
+      </c>
+      <c r="G723" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>A yellow umbrella</t>
+        </is>
+      </c>
+      <c r="B724" t="n">
+        <v>1</v>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D724" t="n">
+        <v>4</v>
+      </c>
+      <c r="F724" t="n">
+        <v>3</v>
+      </c>
+      <c r="G724" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>A yellow umbrella</t>
+        </is>
+      </c>
+      <c r="B725" t="n">
+        <v>1</v>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D725" t="n">
+        <v>5</v>
+      </c>
+      <c r="F725" t="n">
+        <v>5</v>
+      </c>
+      <c r="G725" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>A yellow umbrella</t>
+        </is>
+      </c>
+      <c r="B726" t="n">
+        <v>1</v>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D726" t="n">
+        <v>4</v>
+      </c>
+      <c r="F726" t="n">
+        <v>4</v>
+      </c>
+      <c r="G726" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>A yellow umbrella</t>
+        </is>
+      </c>
+      <c r="B727" t="n">
+        <v>1</v>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D727" t="n">
+        <v>1</v>
+      </c>
+      <c r="F727" t="n">
+        <v>1</v>
+      </c>
+      <c r="G727" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>A yellow umbrella</t>
+        </is>
+      </c>
+      <c r="B728" t="n">
+        <v>1</v>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D728" t="n">
+        <v>5</v>
+      </c>
+      <c r="F728" t="n">
+        <v>4</v>
+      </c>
+      <c r="G728" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="2" t="inlineStr">
+        <is>
+          <t>A yellow umbrella</t>
+        </is>
+      </c>
+      <c r="B729" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C729" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D729" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E729" s="2" t="inlineStr"/>
+      <c r="F729" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G729" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>A yellow umbrella</t>
+        </is>
+      </c>
+      <c r="B730" t="n">
+        <v>2</v>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D730" t="n">
+        <v>5</v>
+      </c>
+      <c r="F730" t="n">
+        <v>5</v>
+      </c>
+      <c r="G730" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>A yellow umbrella</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>2</v>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D731" t="n">
+        <v>5</v>
+      </c>
+      <c r="F731" t="n">
+        <v>5</v>
+      </c>
+      <c r="G731" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>A yellow umbrella</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>2</v>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D732" t="n">
+        <v>5</v>
+      </c>
+      <c r="F732" t="n">
+        <v>5</v>
+      </c>
+      <c r="G732" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>A yellow umbrella</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>2</v>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D733" t="n">
+        <v>5</v>
+      </c>
+      <c r="F733" t="n">
+        <v>4</v>
+      </c>
+      <c r="G733" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>A yellow umbrella</t>
+        </is>
+      </c>
+      <c r="B734" t="n">
+        <v>2</v>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D734" t="n">
+        <v>3</v>
+      </c>
+      <c r="F734" t="n">
+        <v>3</v>
+      </c>
+      <c r="G734" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>A yellow umbrella</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>2</v>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D735" t="n">
+        <v>4</v>
+      </c>
+      <c r="F735" t="n">
+        <v>3</v>
+      </c>
+      <c r="G735" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="2" t="inlineStr">
+        <is>
+          <t>A yellow umbrella</t>
+        </is>
+      </c>
+      <c r="B736" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C736" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D736" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E736" s="2" t="inlineStr"/>
+      <c r="F736" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G736" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>An orange umbrella</t>
+        </is>
+      </c>
+      <c r="B737" t="n">
+        <v>0</v>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D737" t="n">
+        <v>4</v>
+      </c>
+      <c r="F737" t="n">
+        <v>3</v>
+      </c>
+      <c r="G737" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>An orange umbrella</t>
+        </is>
+      </c>
+      <c r="B738" t="n">
+        <v>0</v>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D738" t="n">
+        <v>5</v>
+      </c>
+      <c r="F738" t="n">
+        <v>5</v>
+      </c>
+      <c r="G738" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>An orange umbrella</t>
+        </is>
+      </c>
+      <c r="B739" t="n">
+        <v>0</v>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D739" t="n">
+        <v>5</v>
+      </c>
+      <c r="F739" t="n">
+        <v>5</v>
+      </c>
+      <c r="G739" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>An orange umbrella</t>
+        </is>
+      </c>
+      <c r="B740" t="n">
+        <v>0</v>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D740" t="n">
+        <v>5</v>
+      </c>
+      <c r="F740" t="n">
+        <v>4</v>
+      </c>
+      <c r="G740" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>An orange umbrella</t>
+        </is>
+      </c>
+      <c r="B741" t="n">
+        <v>0</v>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D741" t="n">
+        <v>4</v>
+      </c>
+      <c r="F741" t="n">
+        <v>3</v>
+      </c>
+      <c r="G741" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>An orange umbrella</t>
+        </is>
+      </c>
+      <c r="B742" t="n">
+        <v>0</v>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D742" t="n">
+        <v>3</v>
+      </c>
+      <c r="F742" t="n">
+        <v>4</v>
+      </c>
+      <c r="G742" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="2" t="inlineStr">
+        <is>
+          <t>An orange umbrella</t>
+        </is>
+      </c>
+      <c r="B743" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C743" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D743" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E743" s="2" t="inlineStr"/>
+      <c r="F743" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G743" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>An orange umbrella</t>
+        </is>
+      </c>
+      <c r="B744" t="n">
+        <v>1</v>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D744" t="n">
+        <v>5</v>
+      </c>
+      <c r="F744" t="n">
+        <v>5</v>
+      </c>
+      <c r="G744" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>An orange umbrella</t>
+        </is>
+      </c>
+      <c r="B745" t="n">
+        <v>1</v>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D745" t="n">
+        <v>5</v>
+      </c>
+      <c r="F745" t="n">
+        <v>5</v>
+      </c>
+      <c r="G745" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>An orange umbrella</t>
+        </is>
+      </c>
+      <c r="B746" t="n">
+        <v>1</v>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D746" t="n">
+        <v>4</v>
+      </c>
+      <c r="F746" t="n">
+        <v>5</v>
+      </c>
+      <c r="G746" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>An orange umbrella</t>
+        </is>
+      </c>
+      <c r="B747" t="n">
+        <v>1</v>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D747" t="n">
+        <v>4</v>
+      </c>
+      <c r="F747" t="n">
+        <v>4</v>
+      </c>
+      <c r="G747" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>An orange umbrella</t>
+        </is>
+      </c>
+      <c r="B748" t="n">
+        <v>1</v>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D748" t="n">
+        <v>5</v>
+      </c>
+      <c r="F748" t="n">
+        <v>5</v>
+      </c>
+      <c r="G748" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>An orange umbrella</t>
+        </is>
+      </c>
+      <c r="B749" t="n">
+        <v>1</v>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D749" t="n">
+        <v>4</v>
+      </c>
+      <c r="F749" t="n">
+        <v>3</v>
+      </c>
+      <c r="G749" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="2" t="inlineStr">
+        <is>
+          <t>An orange umbrella</t>
+        </is>
+      </c>
+      <c r="B750" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C750" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D750" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E750" s="2" t="inlineStr"/>
+      <c r="F750" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G750" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>An orange umbrella</t>
+        </is>
+      </c>
+      <c r="B751" t="n">
+        <v>2</v>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>cogvideox5b</t>
+        </is>
+      </c>
+      <c r="D751" t="n">
+        <v>4</v>
+      </c>
+      <c r="F751" t="n">
+        <v>2</v>
+      </c>
+      <c r="G751" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>An orange umbrella</t>
+        </is>
+      </c>
+      <c r="B752" t="n">
+        <v>2</v>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>gen3</t>
+        </is>
+      </c>
+      <c r="D752" t="n">
+        <v>5</v>
+      </c>
+      <c r="F752" t="n">
+        <v>5</v>
+      </c>
+      <c r="G752" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>An orange umbrella</t>
+        </is>
+      </c>
+      <c r="B753" t="n">
+        <v>2</v>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>kling</t>
+        </is>
+      </c>
+      <c r="D753" t="n">
+        <v>5</v>
+      </c>
+      <c r="F753" t="n">
+        <v>5</v>
+      </c>
+      <c r="G753" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>An orange umbrella</t>
+        </is>
+      </c>
+      <c r="B754" t="n">
+        <v>2</v>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>videocrafter2</t>
+        </is>
+      </c>
+      <c r="D754" t="n">
+        <v>3</v>
+      </c>
+      <c r="F754" t="n">
+        <v>3</v>
+      </c>
+      <c r="G754" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>An orange umbrella</t>
+        </is>
+      </c>
+      <c r="B755" t="n">
+        <v>2</v>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>pika</t>
+        </is>
+      </c>
+      <c r="D755" t="n">
+        <v>5</v>
+      </c>
+      <c r="F755" t="n">
+        <v>3</v>
+      </c>
+      <c r="G755" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>An orange umbrella</t>
+        </is>
+      </c>
+      <c r="B756" t="n">
+        <v>2</v>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>show1</t>
+        </is>
+      </c>
+      <c r="D756" t="n">
+        <v>4</v>
+      </c>
+      <c r="F756" t="n">
+        <v>3</v>
+      </c>
+      <c r="G756" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="2" t="inlineStr">
+        <is>
+          <t>An orange umbrella</t>
+        </is>
+      </c>
+      <c r="B757" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C757" s="2" t="inlineStr">
+        <is>
+          <t>lavie</t>
+        </is>
+      </c>
+      <c r="D757" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E757" s="2" t="inlineStr"/>
+      <c r="F757" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G757" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
